--- a/person/王立雨/用户故事-王立雨.xlsx
+++ b/person/王立雨/用户故事-王立雨.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB16FC7D-AEAB-4BB6-B9F6-FDFDAD392DA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA95E94B-C5B0-4F1F-BB82-1F907F010415}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="56">
   <si>
     <t>引用编号</t>
   </si>
@@ -197,6 +197,41 @@
   <si>
     <t>后台-会员管理/文章管理-网店首页</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改密码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个系统管理员，我希望我能对我的管理员登录密码进行修改，以便于登录后台</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出系统</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个系统管理员，我希望我能快速的退出系统，以便于我能快速的退出后台管理系统</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看服务支持</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除缓存</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个系统管理员，我希望我能进入本网站的服务支持网页，以便于我能查看本网站有哪些服务支持，深入了解本网站</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个系统管理员，我希望我能在经过许多操作之后可以清除缓存，以便于保持页面的干净，内存的充足，便于后续操作</t>
   </si>
 </sst>
 </file>
@@ -549,7 +584,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
@@ -639,6 +674,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -948,10 +989,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -963,7 +1004,7 @@
     <col min="8" max="8" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="71.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="71.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1003,8 +1044,11 @@
       <c r="M1" s="16" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N1" s="31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1014,7 +1058,7 @@
       <c r="C2" s="17">
         <v>1</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="33" t="s">
         <v>46</v>
       </c>
       <c r="E2" s="18" t="s">
@@ -1040,8 +1084,11 @@
         <v>1</v>
       </c>
       <c r="M2" s="21"/>
-    </row>
-    <row r="3" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N2" s="32">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1051,7 +1098,7 @@
       <c r="C3" s="17">
         <v>1</v>
       </c>
-      <c r="D3" s="32"/>
+      <c r="D3" s="34"/>
       <c r="E3" s="20" t="s">
         <v>12</v>
       </c>
@@ -1075,8 +1122,11 @@
         <v>2</v>
       </c>
       <c r="M3" s="21"/>
-    </row>
-    <row r="4" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N3" s="32">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="44.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1086,7 +1136,7 @@
       <c r="C4" s="17">
         <v>1</v>
       </c>
-      <c r="D4" s="32"/>
+      <c r="D4" s="34"/>
       <c r="E4" s="18" t="s">
         <v>12</v>
       </c>
@@ -1110,8 +1160,11 @@
         <v>1</v>
       </c>
       <c r="M4" s="23"/>
-    </row>
-    <row r="5" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N4" s="32">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1121,7 +1174,7 @@
       <c r="C5" s="17">
         <v>1</v>
       </c>
-      <c r="D5" s="32"/>
+      <c r="D5" s="34"/>
       <c r="E5" s="18" t="s">
         <v>12</v>
       </c>
@@ -1145,8 +1198,11 @@
         <v>2</v>
       </c>
       <c r="M5" s="23"/>
-    </row>
-    <row r="6" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N5" s="32">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1156,7 +1212,7 @@
       <c r="C6" s="17">
         <v>1</v>
       </c>
-      <c r="D6" s="32"/>
+      <c r="D6" s="34"/>
       <c r="E6" s="18" t="s">
         <v>12</v>
       </c>
@@ -1180,8 +1236,11 @@
         <v>1</v>
       </c>
       <c r="M6" s="23"/>
-    </row>
-    <row r="7" spans="1:13" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N6" s="32">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1191,7 +1250,7 @@
       <c r="C7" s="17">
         <v>1</v>
       </c>
-      <c r="D7" s="33"/>
+      <c r="D7" s="35"/>
       <c r="E7" s="18" t="s">
         <v>12</v>
       </c>
@@ -1215,8 +1274,11 @@
         <v>1</v>
       </c>
       <c r="M7" s="23"/>
-    </row>
-    <row r="8" spans="1:13" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N7" s="32">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1230,101 +1292,145 @@
       <c r="E8" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="22"/>
+      <c r="F8" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>49</v>
+      </c>
       <c r="H8" s="20" t="s">
         <v>13</v>
       </c>
       <c r="I8" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="8"/>
+      <c r="J8" s="8">
+        <v>1</v>
+      </c>
       <c r="K8" s="9"/>
-      <c r="L8" s="10"/>
+      <c r="L8" s="10">
+        <v>1</v>
+      </c>
       <c r="M8" s="21"/>
-    </row>
-    <row r="9" spans="1:13" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N8" s="32">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B9" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="22"/>
+      <c r="F9" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>51</v>
+      </c>
       <c r="H9" s="20" t="s">
         <v>13</v>
       </c>
       <c r="I9" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="8"/>
+      <c r="J9" s="8">
+        <v>1</v>
+      </c>
       <c r="K9" s="9"/>
-      <c r="L9" s="10"/>
+      <c r="L9" s="10">
+        <v>1</v>
+      </c>
       <c r="M9" s="21"/>
-    </row>
-    <row r="10" spans="1:13" ht="47.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N9" s="32">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="47.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B10" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="22"/>
+      <c r="F10" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>54</v>
+      </c>
       <c r="H10" s="20" t="s">
         <v>13</v>
       </c>
       <c r="I10" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="8"/>
+      <c r="J10" s="8">
+        <v>1</v>
+      </c>
       <c r="K10" s="9"/>
-      <c r="L10" s="10"/>
+      <c r="L10" s="10">
+        <v>1</v>
+      </c>
       <c r="M10" s="21"/>
-    </row>
-    <row r="11" spans="1:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N10" s="32">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B11" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="22"/>
+      <c r="F11" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>55</v>
+      </c>
       <c r="H11" s="18" t="s">
         <v>13</v>
       </c>
       <c r="I11" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="8"/>
+      <c r="J11" s="8">
+        <v>1</v>
+      </c>
       <c r="K11" s="9"/>
-      <c r="L11" s="10"/>
+      <c r="L11" s="10">
+        <v>1</v>
+      </c>
       <c r="M11" s="21"/>
-    </row>
-    <row r="12" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N11" s="32">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1351,7 +1457,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="21"/>
     </row>
-    <row r="13" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1378,7 +1484,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="21"/>
     </row>
-    <row r="14" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1405,7 +1511,7 @@
       <c r="L14" s="12"/>
       <c r="M14" s="23"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>1</v>
       </c>
@@ -1432,7 +1538,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="23"/>
     </row>
-    <row r="16" spans="1:13" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>2</v>
       </c>
@@ -1650,7 +1756,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1672,15 +1778,15 @@
       <c r="A1" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
       <c r="I1" s="28" t="s">
         <v>30</v>
       </c>
@@ -1695,15 +1801,15 @@
       <c r="A2" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
       <c r="K2" s="29"/>
@@ -1712,15 +1818,15 @@
       <c r="A3" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
       <c r="K3" s="30"/>
@@ -1729,15 +1835,15 @@
       <c r="A4" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
       <c r="I4" s="29"/>
       <c r="J4" s="29"/>
       <c r="K4" s="29"/>
@@ -1746,15 +1852,15 @@
       <c r="A5" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
       <c r="I5" s="30"/>
       <c r="J5" s="30"/>
       <c r="K5" s="30"/>
@@ -1763,15 +1869,15 @@
       <c r="A6" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
       <c r="I6" s="29"/>
       <c r="J6" s="29"/>
       <c r="K6" s="29"/>
@@ -1780,15 +1886,15 @@
       <c r="A7" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
       <c r="I7" s="30"/>
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
